--- a/Automation Framework/TestData/DataSheet.xlsx
+++ b/Automation Framework/TestData/DataSheet.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\git\Automation-Framework\Automation Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{122C5E0D-00AA-4C32-9EE0-D2BB79D42063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12605C-CE6F-49B8-8D83-C33695A93851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="1" r:id="rId1"/>
     <sheet name="Configuration" sheetId="2" r:id="rId2"/>
+    <sheet name="URL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Automation Framework</t>
   </si>
@@ -47,13 +48,22 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>https://www.makemytrip.com</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +89,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,10 +175,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -171,8 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,7 +540,7 @@
   <dimension ref="H4:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -576,4 +597,33 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F403247-E7C1-42B7-A080-9F36ED355718}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{4E7B82CB-24E3-4106-9992-444999D712D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Automation Framework/TestData/DataSheet.xlsx
+++ b/Automation Framework/TestData/DataSheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\git\Automation-Framework\Automation Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12605C-CE6F-49B8-8D83-C33695A93851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F36DBC-5210-4E5F-93E8-9E9D59D00FF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
   </bookViews>
   <sheets>
-    <sheet name="Framework" sheetId="1" r:id="rId1"/>
-    <sheet name="Configuration" sheetId="2" r:id="rId2"/>
-    <sheet name="URL" sheetId="3" r:id="rId3"/>
+    <sheet name="Configuration" sheetId="2" r:id="rId1"/>
+    <sheet name="URL" sheetId="3" r:id="rId2"/>
+    <sheet name="DemoElements" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Automation Framework</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Browser</t>
   </si>
@@ -41,22 +38,73 @@
     <t>Highlight</t>
   </si>
   <si>
-    <t>Framework Configuration</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>URL1</t>
-  </si>
-  <si>
-    <t>https://www.makemytrip.com</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Default wait time</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DemoElements</t>
+  </si>
+  <si>
+    <t>https://www.automationtestinginsider.com/2019/08/textarea-textarea-element-defines-multi.html</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>RadioData</t>
+  </si>
+  <si>
+    <t>CheckBoxData</t>
+  </si>
+  <si>
+    <t>DropDown</t>
+  </si>
+  <si>
+    <t>DemoElements_demoElementTestcase</t>
+  </si>
+  <si>
+    <t>Textarea commnets</t>
+  </si>
+  <si>
+    <t>Aravind</t>
+  </si>
+  <si>
+    <t>Penumaka</t>
+  </si>
+  <si>
+    <t>Checkbox3</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2018-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Configuration</t>
   </si>
 </sst>
 </file>
@@ -66,13 +114,6 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,8 +142,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,42 +170,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -177,20 +203,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,85 +531,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406A5330-D555-4809-8533-2F3D621C6DE8}">
-  <dimension ref="A8:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC2BDB4-7160-431A-919C-B1A3BF9F7A81}">
+  <dimension ref="H4:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="91.8" x14ac:dyDescent="1.65">
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC2BDB4-7160-431A-919C-B1A3BF9F7A81}">
-  <dimension ref="H4:O13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="8:15" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="11" spans="8:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="J11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="8:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="11" spans="8:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="J11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9" t="s">
+    </row>
+    <row r="13" spans="8:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="J13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="8:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="8:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="J12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="8:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="J13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>9</v>
+      <c r="K14" s="6">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -599,31 +602,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F403247-E7C1-42B7-A080-9F36ED355718}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{4E7B82CB-24E3-4106-9992-444999D712D4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5F48E8F1-3642-40D0-B4E5-EF04CD63E826}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229A406-6429-4380-A0C4-CD171B0FA3C4}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Automation Framework/TestData/DataSheet.xlsx
+++ b/Automation Framework/TestData/DataSheet.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\git\Automation-Framework\Automation Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F36DBC-5210-4E5F-93E8-9E9D59D00FF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED50E4-F0DC-4C6C-BD08-28379328290E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
     <sheet name="URL" sheetId="3" r:id="rId2"/>
-    <sheet name="DemoElements" sheetId="4" r:id="rId3"/>
+    <sheet name="Login" sheetId="5" r:id="rId3"/>
+    <sheet name="DemoElements" sheetId="4" r:id="rId4"/>
+    <sheet name="HRM" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Browser</t>
   </si>
@@ -105,6 +107,51 @@
   </si>
   <si>
     <t xml:space="preserve">      Configuration</t>
+  </si>
+  <si>
+    <t>HRM</t>
+  </si>
+  <si>
+    <t>https://orangehrm-demo-6x.orangehrmlive.com/auth/login</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>HRM_ApplyLeave</t>
+  </si>
+  <si>
+    <t>leaveType</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t>Sat, 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>Sat, 15 Mar 2021</t>
   </si>
 </sst>
 </file>
@@ -604,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F403247-E7C1-42B7-A080-9F36ED355718}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,21 +679,70 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5F48E8F1-3642-40D0-B4E5-EF04CD63E826}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C120A196-4E27-499B-952E-687A1B72130A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0CB47-FA0A-4F20-8C12-A8E7E40FDF22}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229A406-6429-4380-A0C4-CD171B0FA3C4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -715,4 +811,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948E3839-E6D1-4C81-A7CD-00BF1A347CAF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Automation Framework/TestData/DataSheet.xlsx
+++ b/Automation Framework/TestData/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\git\Automation-Framework\Automation Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED50E4-F0DC-4C6C-BD08-28379328290E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A355C3-D60A-4BF1-97A7-43C55691CF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -148,10 +148,10 @@
     <t>Casual Leave</t>
   </si>
   <si>
-    <t>Sat, 13 Mar 2021</t>
-  </si>
-  <si>
-    <t>Sat, 15 Mar 2021</t>
+    <t>Tue, 13 Apr 2021</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC2BDB4-7160-431A-919C-B1A3BF9F7A81}">
   <dimension ref="H4:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="8:15" ht="18" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0CB47-FA0A-4F20-8C12-A8E7E40FDF22}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948E3839-E6D1-4C81-A7CD-00BF1A347CAF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +857,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>38</v>
